--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2187.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2187.xlsx
@@ -354,7 +354,7 @@
         <v>1.797554846304572</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.933617491164599</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2187.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2187.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.045812419913483</v>
+        <v>1.15514874458313</v>
       </c>
       <c r="B1">
-        <v>1.797554846304572</v>
+        <v>1.728742957115173</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.039756298065186</v>
       </c>
       <c r="D1">
-        <v>1.933617491164599</v>
+        <v>2.65102744102478</v>
       </c>
       <c r="E1">
-        <v>1.005454460617663</v>
+        <v>1.46392285823822</v>
       </c>
     </row>
   </sheetData>
